--- a/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
@@ -1,174 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>000866</t>
-  </si>
-  <si>
-    <t>011160</t>
-  </si>
-  <si>
-    <t>000066</t>
-  </si>
-  <si>
-    <t>002137</t>
-  </si>
-  <si>
-    <t>001967</t>
-  </si>
-  <si>
-    <t>011161</t>
-  </si>
-  <si>
-    <t>华宝高端制造股票</t>
-  </si>
-  <si>
-    <t>富国质量成长6个月持有期混合A</t>
-  </si>
-  <si>
-    <t>诺安鸿鑫混合</t>
-  </si>
-  <si>
-    <t>诺安利鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>华宝转型升级灵活配置混合</t>
-  </si>
-  <si>
-    <t>富国质量成长6个月持有期混合C</t>
-  </si>
-  <si>
-    <t>2.21</t>
-  </si>
-  <si>
-    <t>8.47</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>94.12</t>
-  </si>
-  <si>
-    <t>45.79</t>
-  </si>
-  <si>
-    <t>87.70</t>
-  </si>
-  <si>
-    <t>93.81</t>
-  </si>
-  <si>
-    <t>92.56</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>4.28</t>
-  </si>
-  <si>
-    <t>4.16</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>0.0829</t>
-  </si>
-  <si>
-    <t>0.0737</t>
-  </si>
-  <si>
-    <t>0.0437</t>
-  </si>
-  <si>
-    <t>0.0275</t>
-  </si>
-  <si>
-    <t>0.0194</t>
-  </si>
-  <si>
-    <t>0.0022</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -493,193 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.67</v>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,499 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧优势成长三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005901</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005902</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安汇利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.79</v>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.67</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="4">
@@ -1482,13 +1615,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9884</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.79</v>
+          <t>501081</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧科创主题3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.67</v>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1530</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.25</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>2.03</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.79</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.67</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -566,6 +583,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1001,7 +1568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +1700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1645,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1815,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
+++ b/数据整理/stocks/A股/上证主板/605376-博迁新材.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.03</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.79</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.67</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>016283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014839</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银碳中和主题混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +1433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1568,7 +1869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1700,7 +2001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2212,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2382,7 +2683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
